--- a/biology/Zoologie/Aspidoscelis_hyperythra/Aspidoscelis_hyperythra.xlsx
+++ b/biology/Zoologie/Aspidoscelis_hyperythra/Aspidoscelis_hyperythra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis hyperythra est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis hyperythra est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans le sud de la Californie et au Nouveau-Mexique ;
 au Mexique dans l'État de Chihuahua et en péninsule de Basse-Californie.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard est brun avec des lignes blanches à bleutées sur les côtés. Chez les juvéniles les pattes et la queue sont également bleus. La face ventrale plutôt beige chez les femelles et orange chez les mâles, bien que les femelles gravides puissent également présenter une teinte orange.
 Les mâles présentent des pores fémoraux plus gros que les femelles.
@@ -575,9 +591,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 janvier 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 janvier 2014) :
 Aspidoscelis hyperythra beldingi (Stejneger, 1894)
 Aspidoscelis hyperythra caeruleus (Dickerson, 1919)
 Aspidoscelis hyperythra carmenensis (Maslin &amp; Secoy, 1986)
@@ -612,7 +630,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1864 "1863" : Descriptions of new American Squamata in the Museum of the Smtihsonian Institution. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 15, p. 100-106 (texte intégral).
 Dickerson, 1919 : Diagnoses of twenty-three new species and a new genus of lizards from Lower California. Bulletin of the American Museum of Natural History, vol. 41, no 10, p. 461-477 (texte intégral).
